--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valenzuela\Documents\GitHub\CertificatesGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE00C3A-10D3-41AF-BA45-0D3424DB4ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC6227-B0B8-4DE7-A44B-937A64BA3703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,9 +61,6 @@
     <t>sdfdsfye</t>
   </si>
   <si>
-    <t>324234gss</t>
-  </si>
-  <si>
     <t>ewfvd</t>
   </si>
   <si>
@@ -94,19 +91,25 @@
     <t>e2eddv</t>
   </si>
   <si>
-    <t>45rf</t>
-  </si>
-  <si>
     <t>ramir</t>
   </si>
   <si>
-    <t>42w</t>
-  </si>
-  <si>
     <t>Mocte</t>
   </si>
   <si>
     <t>Monti</t>
+  </si>
+  <si>
+    <t>gss</t>
+  </si>
+  <si>
+    <t>ggf</t>
+  </si>
+  <si>
+    <t>ffrf</t>
+  </si>
+  <si>
+    <t>fhhr</t>
   </si>
 </sst>
 </file>
@@ -950,7 +953,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +976,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -981,10 +984,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>43543</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,12 +1003,12 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1013,7 +1016,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1021,15 +1024,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1037,15 +1040,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1053,23 +1056,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
